--- a/relatorios/repasses_liberados/dentistas/02681917433/2023-08-25_relatorio_repasses_02681917433.xlsx
+++ b/relatorios/repasses_liberados/dentistas/02681917433/2023-08-25_relatorio_repasses_02681917433.xlsx
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <v>0</v>
